--- a/data/analysis/indicators_social/socmedia_indic-time_weekly-twitter-1W-data.xlsx
+++ b/data/analysis/indicators_social/socmedia_indic-time_weekly-twitter-1W-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="9">
   <si>
     <t>ts</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1087"/>
+  <dimension ref="A1:C1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1439</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -537,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>1193</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -581,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>1273</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>1519</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -867,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1266</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>1263</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1341</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>1117</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1439</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>1570</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>1543</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C82">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="C84">
-        <v>1459</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>1238</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="C94">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="C96">
-        <v>1612</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C102">
-        <v>1307</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C108">
-        <v>1405</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>1331</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>1506</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="C124">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="C126">
-        <v>1547</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="C132">
-        <v>1219</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="C136">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>1400</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="C142">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="C144">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="C145">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="C148">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="C150">
-        <v>1217</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C154">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="C155">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="C156">
-        <v>1343</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="C157">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>1184</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="C163">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="C164">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="C167">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="C168">
-        <v>1138</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="C169">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="C175">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>6</v>
       </c>
       <c r="C179">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="C180">
-        <v>1110</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>8</v>
       </c>
       <c r="C181">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="C185">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="C186">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="C189">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="C192">
-        <v>1131</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="C195">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="C198">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>7</v>
       </c>
       <c r="C204">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2660,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="C205">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="C206">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2715,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2737,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2792,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="C217">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="C218">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="C221">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="C224">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="C226">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="C228">
-        <v>1251</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>8</v>
       </c>
       <c r="C229">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="C230">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2979,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="C235">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3001,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C238">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3045,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="C240">
-        <v>1250</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="C241">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="C242">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3089,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="C244">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C246">
-        <v>1058</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3122,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="C247">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="C248">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3155,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="C250">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="C251">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="C252">
-        <v>988</v>
+        <v>993</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="C258">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="C260">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="C261">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3298,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="C263">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="C264">
-        <v>1556</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3331,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="C268">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3364,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="C269">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3375,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="C270">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="C272">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="C278">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3474,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>6</v>
       </c>
       <c r="C281">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="C282">
-        <v>1013</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3518,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="C283">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="C284">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="C285">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="C288">
-        <v>1237</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>8</v>
       </c>
       <c r="C289">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="C290">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3606,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="C293">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="C294">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3650,7 +3650,7 @@
         <v>8</v>
       </c>
       <c r="C295">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="C296">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="C300">
-        <v>1102</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>8</v>
       </c>
       <c r="C301">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="C302">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="C303">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>1584</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3782,7 +3782,7 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3793,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="C308">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3837,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="C312">
-        <v>1933</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3859,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="C314">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="C315">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="C317">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="C318">
-        <v>2025</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="C320">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3936,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="C321">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>6</v>
       </c>
       <c r="C323">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3969,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="C324">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="C325">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="C326">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="C327">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="C330">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4046,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="C331">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4057,7 +4057,7 @@
         <v>3</v>
       </c>
       <c r="C332">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>6</v>
       </c>
       <c r="C335">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4101,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="C336">
-        <v>1148</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4112,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="C337">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="C338">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4134,7 +4134,7 @@
         <v>4</v>
       </c>
       <c r="C339">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4156,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="C341">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="C342">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="C343">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="C344">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="C347">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4233,7 +4233,7 @@
         <v>7</v>
       </c>
       <c r="C348">
-        <v>1319</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4244,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="C349">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4255,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="C350">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4266,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="C351">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4288,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="C353">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="C354">
-        <v>1506</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4310,7 +4310,7 @@
         <v>8</v>
       </c>
       <c r="C355">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4321,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="C356">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="C360">
-        <v>1274</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4376,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="C361">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="C362">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4398,7 +4398,7 @@
         <v>4</v>
       </c>
       <c r="C363">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4431,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="C366">
-        <v>1328</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4442,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="C367">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="C368">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4464,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="C369">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4486,7 +4486,7 @@
         <v>6</v>
       </c>
       <c r="C371">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4497,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="C372">
-        <v>1316</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4508,7 +4508,7 @@
         <v>8</v>
       </c>
       <c r="C373">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4519,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="C374">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4530,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="C375">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4563,7 +4563,7 @@
         <v>7</v>
       </c>
       <c r="C378">
-        <v>1201</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4574,7 +4574,7 @@
         <v>8</v>
       </c>
       <c r="C379">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="C380">
-        <v>4504</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="C381">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4607,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="C382">
-        <v>2160</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>6</v>
       </c>
       <c r="C383">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>7</v>
       </c>
       <c r="C384">
-        <v>3554</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="C385">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="C386">
-        <v>1567</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>4</v>
       </c>
       <c r="C387">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="C388">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="C390">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>8</v>
       </c>
       <c r="C391">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="C392">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="C393">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="C394">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>6</v>
       </c>
       <c r="C395">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="C396">
-        <v>1842</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="C397">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="C398">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="C399">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>5</v>
       </c>
       <c r="C400">
-        <v>2246</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>6</v>
       </c>
       <c r="C401">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="C402">
-        <v>1810</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="C403">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="C404">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4860,7 +4860,7 @@
         <v>4</v>
       </c>
       <c r="C405">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4871,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="C406">
-        <v>2323</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4882,7 +4882,7 @@
         <v>6</v>
       </c>
       <c r="C407">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4893,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="C408">
-        <v>1380</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4904,7 +4904,7 @@
         <v>8</v>
       </c>
       <c r="C409">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="C410">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="C411">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4937,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="C412">
-        <v>2560</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="C413">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4959,7 +4959,7 @@
         <v>7</v>
       </c>
       <c r="C414">
-        <v>1502</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4970,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="C415">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4981,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="C416">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4992,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="C417">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="C418">
-        <v>3309</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5014,7 +5014,7 @@
         <v>6</v>
       </c>
       <c r="C419">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="C420">
-        <v>1910</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5036,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="C421">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5047,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="C422">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5058,7 +5058,7 @@
         <v>4</v>
       </c>
       <c r="C423">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="C424">
-        <v>2681</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5080,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="C425">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5091,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="C426">
-        <v>1454</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5102,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="C427">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5113,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="C428">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5124,7 +5124,7 @@
         <v>4</v>
       </c>
       <c r="C429">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="C430">
-        <v>2579</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5146,7 +5146,7 @@
         <v>6</v>
       </c>
       <c r="C431">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="C432">
-        <v>2445</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5168,7 +5168,7 @@
         <v>8</v>
       </c>
       <c r="C433">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5179,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="C434">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5190,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="C435">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5201,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="C436">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="C437">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="C438">
-        <v>2309</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5234,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="C439">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5256,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="C441">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5267,7 +5267,7 @@
         <v>5</v>
       </c>
       <c r="C442">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5289,7 +5289,7 @@
         <v>7</v>
       </c>
       <c r="C444">
-        <v>2370</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5300,7 +5300,7 @@
         <v>8</v>
       </c>
       <c r="C445">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="C446">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5322,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="C447">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="C448">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5355,7 +5355,7 @@
         <v>7</v>
       </c>
       <c r="C450">
-        <v>2750</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5366,7 +5366,7 @@
         <v>8</v>
       </c>
       <c r="C451">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>3</v>
       </c>
       <c r="C452">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5388,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="C453">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="C454">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5410,7 +5410,7 @@
         <v>6</v>
       </c>
       <c r="C455">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>7</v>
       </c>
       <c r="C456">
-        <v>2234</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5432,7 +5432,7 @@
         <v>8</v>
       </c>
       <c r="C457">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5443,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="C458">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="C459">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5465,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="C460">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5487,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="C462">
-        <v>2572</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="C463">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5509,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="C464">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5520,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="C465">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>7</v>
       </c>
       <c r="C468">
-        <v>4387</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="C469">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="C470">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="C471">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="C473">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5619,7 +5619,7 @@
         <v>7</v>
       </c>
       <c r="C474">
-        <v>5417</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>8</v>
       </c>
       <c r="C475">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="C476">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="C477">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>5</v>
       </c>
       <c r="C478">
-        <v>1864</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>6</v>
       </c>
       <c r="C479">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="C480">
-        <v>4988</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="C482">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5718,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="C483">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>5</v>
       </c>
       <c r="C484">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="C485">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>7</v>
       </c>
       <c r="C486">
-        <v>4086</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>8</v>
       </c>
       <c r="C487">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>3</v>
       </c>
       <c r="C488">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="C489">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>5</v>
       </c>
       <c r="C490">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5817,7 +5817,7 @@
         <v>7</v>
       </c>
       <c r="C492">
-        <v>3726</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>8</v>
       </c>
       <c r="C493">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
       <c r="C494">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="C496">
-        <v>1542</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="C497">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>7</v>
       </c>
       <c r="C498">
-        <v>4370</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>8</v>
       </c>
       <c r="C499">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5905,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="C500">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="C501">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="C502">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5938,7 +5938,7 @@
         <v>6</v>
       </c>
       <c r="C503">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="C504">
-        <v>3001</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5960,7 +5960,7 @@
         <v>8</v>
       </c>
       <c r="C505">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5971,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="C506">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5982,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="C507">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5993,7 +5993,7 @@
         <v>5</v>
       </c>
       <c r="C508">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6015,7 +6015,7 @@
         <v>7</v>
       </c>
       <c r="C510">
-        <v>2730</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6026,7 +6026,7 @@
         <v>8</v>
       </c>
       <c r="C511">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6037,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="C512">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="C514">
-        <v>1707</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6081,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="C516">
-        <v>2933</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6092,7 +6092,7 @@
         <v>8</v>
       </c>
       <c r="C517">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="C518">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6114,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="C519">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6125,7 +6125,7 @@
         <v>5</v>
       </c>
       <c r="C520">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6136,7 +6136,7 @@
         <v>6</v>
       </c>
       <c r="C521">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6147,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="C522">
-        <v>3420</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6169,7 +6169,7 @@
         <v>3</v>
       </c>
       <c r="C524">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6180,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="C525">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6191,7 +6191,7 @@
         <v>5</v>
       </c>
       <c r="C526">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6202,7 +6202,7 @@
         <v>6</v>
       </c>
       <c r="C527">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
       <c r="C528">
-        <v>2675</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6224,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="C529">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6235,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="C530">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6246,7 +6246,7 @@
         <v>4</v>
       </c>
       <c r="C531">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6257,7 +6257,7 @@
         <v>5</v>
       </c>
       <c r="C532">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="C534">
-        <v>2457</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6290,7 +6290,7 @@
         <v>8</v>
       </c>
       <c r="C535">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6301,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="C536">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6312,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="C537">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6323,7 +6323,7 @@
         <v>5</v>
       </c>
       <c r="C538">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6345,7 +6345,7 @@
         <v>7</v>
       </c>
       <c r="C540">
-        <v>2437</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6356,7 +6356,7 @@
         <v>8</v>
       </c>
       <c r="C541">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6367,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="C542">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6378,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="C543">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6389,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="C544">
-        <v>1923</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6400,7 +6400,7 @@
         <v>6</v>
       </c>
       <c r="C545">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6411,7 +6411,7 @@
         <v>7</v>
       </c>
       <c r="C546">
-        <v>2135</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6433,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="C548">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="C549">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6455,7 +6455,7 @@
         <v>5</v>
       </c>
       <c r="C550">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6466,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="C551">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6477,7 +6477,7 @@
         <v>7</v>
       </c>
       <c r="C552">
-        <v>1945</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6488,7 +6488,7 @@
         <v>8</v>
       </c>
       <c r="C553">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6499,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="C554">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6510,7 +6510,7 @@
         <v>4</v>
       </c>
       <c r="C555">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="C556">
-        <v>1937</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6543,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="C558">
-        <v>1439</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="C559">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6565,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="C560">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6576,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="C561">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6587,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="C562">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="C564">
-        <v>1724</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6620,7 +6620,7 @@
         <v>8</v>
       </c>
       <c r="C565">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="C566">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6642,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="C567">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6653,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="C568">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6664,7 +6664,7 @@
         <v>6</v>
       </c>
       <c r="C569">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
       <c r="C570">
-        <v>1662</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6686,7 +6686,7 @@
         <v>8</v>
       </c>
       <c r="C571">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6697,7 +6697,7 @@
         <v>3</v>
       </c>
       <c r="C572">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6708,7 +6708,7 @@
         <v>4</v>
       </c>
       <c r="C573">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6719,7 +6719,7 @@
         <v>5</v>
       </c>
       <c r="C574">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="C576">
-        <v>1671</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6752,7 +6752,7 @@
         <v>8</v>
       </c>
       <c r="C577">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6763,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="C578">
-        <v>2725</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6774,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="C579">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6785,7 +6785,7 @@
         <v>5</v>
       </c>
       <c r="C580">
-        <v>2379</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6796,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="C581">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6807,7 +6807,7 @@
         <v>7</v>
       </c>
       <c r="C582">
-        <v>3996</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6818,7 +6818,7 @@
         <v>8</v>
       </c>
       <c r="C583">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6829,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="C584">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6840,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="C585">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C586">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6873,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="C588">
-        <v>1683</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6884,7 +6884,7 @@
         <v>8</v>
       </c>
       <c r="C589">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6895,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="C590">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6906,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="C591">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6939,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="C594">
-        <v>1630</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6961,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="C596">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6972,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="C597">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6983,7 +6983,7 @@
         <v>5</v>
       </c>
       <c r="C598">
-        <v>2679</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7005,7 +7005,7 @@
         <v>7</v>
       </c>
       <c r="C600">
-        <v>2917</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7016,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="C601">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7027,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="C602">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7038,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="C603">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7049,7 +7049,7 @@
         <v>5</v>
       </c>
       <c r="C604">
-        <v>2675</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7071,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="C606">
-        <v>4548</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7093,7 +7093,7 @@
         <v>3</v>
       </c>
       <c r="C608">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7104,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="C609">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7115,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="C610">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
       <c r="C612">
-        <v>2260</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7148,7 +7148,7 @@
         <v>8</v>
       </c>
       <c r="C613">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>3</v>
       </c>
       <c r="C614">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7170,7 +7170,7 @@
         <v>4</v>
       </c>
       <c r="C615">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7181,7 +7181,7 @@
         <v>5</v>
       </c>
       <c r="C616">
-        <v>2265</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7192,7 +7192,7 @@
         <v>6</v>
       </c>
       <c r="C617">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7203,7 +7203,7 @@
         <v>7</v>
       </c>
       <c r="C618">
-        <v>2224</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7214,7 +7214,7 @@
         <v>8</v>
       </c>
       <c r="C619">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7225,7 +7225,7 @@
         <v>3</v>
       </c>
       <c r="C620">
-        <v>1217</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7236,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="C621">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7247,7 +7247,7 @@
         <v>5</v>
       </c>
       <c r="C622">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7269,7 +7269,7 @@
         <v>7</v>
       </c>
       <c r="C624">
-        <v>2656</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7280,7 +7280,7 @@
         <v>8</v>
       </c>
       <c r="C625">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7291,7 +7291,7 @@
         <v>3</v>
       </c>
       <c r="C626">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7302,7 +7302,7 @@
         <v>4</v>
       </c>
       <c r="C627">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7335,7 +7335,7 @@
         <v>7</v>
       </c>
       <c r="C630">
-        <v>2444</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7357,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="C632">
-        <v>1294</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7368,7 +7368,7 @@
         <v>4</v>
       </c>
       <c r="C633">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7379,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="C634">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7401,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="C636">
-        <v>1921</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="C637">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7423,7 +7423,7 @@
         <v>3</v>
       </c>
       <c r="C638">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7434,7 +7434,7 @@
         <v>4</v>
       </c>
       <c r="C639">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7445,7 +7445,7 @@
         <v>5</v>
       </c>
       <c r="C640">
-        <v>2299</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7467,7 +7467,7 @@
         <v>7</v>
       </c>
       <c r="C642">
-        <v>1841</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7489,7 +7489,7 @@
         <v>3</v>
       </c>
       <c r="C644">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7500,7 +7500,7 @@
         <v>4</v>
       </c>
       <c r="C645">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7511,7 +7511,7 @@
         <v>5</v>
       </c>
       <c r="C646">
-        <v>2196</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7522,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="C647">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7533,7 +7533,7 @@
         <v>7</v>
       </c>
       <c r="C648">
-        <v>1617</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7544,7 +7544,7 @@
         <v>8</v>
       </c>
       <c r="C649">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7555,7 +7555,7 @@
         <v>3</v>
       </c>
       <c r="C650">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7577,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="C652">
-        <v>2283</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7599,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="C654">
-        <v>1479</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7621,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="C656">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7632,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="C657">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7643,7 +7643,7 @@
         <v>5</v>
       </c>
       <c r="C658">
-        <v>2551</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7665,7 +7665,7 @@
         <v>7</v>
       </c>
       <c r="C660">
-        <v>1519</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7676,7 +7676,7 @@
         <v>8</v>
       </c>
       <c r="C661">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7687,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="C662">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7698,7 +7698,7 @@
         <v>4</v>
       </c>
       <c r="C663">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7709,7 +7709,7 @@
         <v>5</v>
       </c>
       <c r="C664">
-        <v>2339</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7731,7 +7731,7 @@
         <v>7</v>
       </c>
       <c r="C666">
-        <v>1423</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7742,7 +7742,7 @@
         <v>8</v>
       </c>
       <c r="C667">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7753,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="C668">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7764,7 +7764,7 @@
         <v>4</v>
       </c>
       <c r="C669">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="C670">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7797,7 +7797,7 @@
         <v>7</v>
       </c>
       <c r="C672">
-        <v>1270</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7808,7 +7808,7 @@
         <v>8</v>
       </c>
       <c r="C673">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7819,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="C674">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7830,7 +7830,7 @@
         <v>4</v>
       </c>
       <c r="C675">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7841,7 +7841,7 @@
         <v>5</v>
       </c>
       <c r="C676">
-        <v>2346</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7852,7 +7852,7 @@
         <v>6</v>
       </c>
       <c r="C677">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7863,7 +7863,7 @@
         <v>7</v>
       </c>
       <c r="C678">
-        <v>2059</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7874,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="C679">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7885,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="C680">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7896,7 +7896,7 @@
         <v>4</v>
       </c>
       <c r="C681">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7907,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="C682">
-        <v>2416</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7929,7 +7929,7 @@
         <v>7</v>
       </c>
       <c r="C684">
-        <v>1771</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7940,7 +7940,7 @@
         <v>8</v>
       </c>
       <c r="C685">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7951,7 +7951,7 @@
         <v>3</v>
       </c>
       <c r="C686">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7962,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="C687">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7973,7 +7973,7 @@
         <v>5</v>
       </c>
       <c r="C688">
-        <v>2321</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7984,7 +7984,7 @@
         <v>6</v>
       </c>
       <c r="C689">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7995,7 +7995,7 @@
         <v>7</v>
       </c>
       <c r="C690">
-        <v>1975</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8006,7 +8006,7 @@
         <v>8</v>
       </c>
       <c r="C691">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8028,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="C693">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8039,7 +8039,7 @@
         <v>5</v>
       </c>
       <c r="C694">
-        <v>2178</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8061,7 +8061,7 @@
         <v>7</v>
       </c>
       <c r="C696">
-        <v>2062</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8072,7 +8072,7 @@
         <v>8</v>
       </c>
       <c r="C697">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8083,7 +8083,7 @@
         <v>3</v>
       </c>
       <c r="C698">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8094,7 +8094,7 @@
         <v>4</v>
       </c>
       <c r="C699">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8105,7 +8105,7 @@
         <v>5</v>
       </c>
       <c r="C700">
-        <v>2081</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8127,7 +8127,7 @@
         <v>7</v>
       </c>
       <c r="C702">
-        <v>2231</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8149,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="C704">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8160,7 +8160,7 @@
         <v>4</v>
       </c>
       <c r="C705">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8171,7 +8171,7 @@
         <v>5</v>
       </c>
       <c r="C706">
-        <v>2078</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8193,7 +8193,7 @@
         <v>7</v>
       </c>
       <c r="C708">
-        <v>2936</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8204,7 +8204,7 @@
         <v>8</v>
       </c>
       <c r="C709">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8215,7 +8215,7 @@
         <v>3</v>
       </c>
       <c r="C710">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8226,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="C711">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8248,7 +8248,7 @@
         <v>6</v>
       </c>
       <c r="C713">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8259,7 +8259,7 @@
         <v>7</v>
       </c>
       <c r="C714">
-        <v>2801</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8270,7 +8270,7 @@
         <v>8</v>
       </c>
       <c r="C715">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8281,7 +8281,7 @@
         <v>3</v>
       </c>
       <c r="C716">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8292,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="C717">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8303,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="C718">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8314,7 +8314,7 @@
         <v>6</v>
       </c>
       <c r="C719">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8325,7 +8325,7 @@
         <v>7</v>
       </c>
       <c r="C720">
-        <v>3591</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8336,7 +8336,7 @@
         <v>8</v>
       </c>
       <c r="C721">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8347,7 +8347,7 @@
         <v>3</v>
       </c>
       <c r="C722">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="C723">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8369,7 +8369,7 @@
         <v>5</v>
       </c>
       <c r="C724">
-        <v>1849</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8380,7 +8380,7 @@
         <v>6</v>
       </c>
       <c r="C725">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8391,7 +8391,7 @@
         <v>7</v>
       </c>
       <c r="C726">
-        <v>2864</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8402,7 +8402,7 @@
         <v>8</v>
       </c>
       <c r="C727">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8413,7 +8413,7 @@
         <v>3</v>
       </c>
       <c r="C728">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8424,7 +8424,7 @@
         <v>4</v>
       </c>
       <c r="C729">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8435,7 +8435,7 @@
         <v>5</v>
       </c>
       <c r="C730">
-        <v>1774</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8446,7 +8446,7 @@
         <v>6</v>
       </c>
       <c r="C731">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8457,7 +8457,7 @@
         <v>7</v>
       </c>
       <c r="C732">
-        <v>3948</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8468,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="C733">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8479,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="C734">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8490,7 +8490,7 @@
         <v>4</v>
       </c>
       <c r="C735">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8501,7 +8501,7 @@
         <v>5</v>
       </c>
       <c r="C736">
-        <v>1700</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8523,7 +8523,7 @@
         <v>7</v>
       </c>
       <c r="C738">
-        <v>3844</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8534,7 +8534,7 @@
         <v>8</v>
       </c>
       <c r="C739">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8545,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="C740">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8556,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="C741">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8578,7 +8578,7 @@
         <v>6</v>
       </c>
       <c r="C743">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8589,7 +8589,7 @@
         <v>7</v>
       </c>
       <c r="C744">
-        <v>6820</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8600,7 +8600,7 @@
         <v>8</v>
       </c>
       <c r="C745">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8611,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="C746">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8622,7 +8622,7 @@
         <v>4</v>
       </c>
       <c r="C747">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8633,7 +8633,7 @@
         <v>5</v>
       </c>
       <c r="C748">
-        <v>1822</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8644,7 +8644,7 @@
         <v>6</v>
       </c>
       <c r="C749">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8655,7 +8655,7 @@
         <v>7</v>
       </c>
       <c r="C750">
-        <v>7298</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8666,7 +8666,7 @@
         <v>8</v>
       </c>
       <c r="C751">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8677,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="C752">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8688,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="C753">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8699,7 +8699,7 @@
         <v>5</v>
       </c>
       <c r="C754">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8710,7 +8710,7 @@
         <v>6</v>
       </c>
       <c r="C755">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8721,7 +8721,7 @@
         <v>7</v>
       </c>
       <c r="C756">
-        <v>2968</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8732,7 +8732,7 @@
         <v>8</v>
       </c>
       <c r="C757">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8743,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="C758">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8765,7 +8765,7 @@
         <v>5</v>
       </c>
       <c r="C760">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8776,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="C761">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8787,7 +8787,7 @@
         <v>7</v>
       </c>
       <c r="C762">
-        <v>2120</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8798,7 +8798,7 @@
         <v>8</v>
       </c>
       <c r="C763">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="C764">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8820,7 +8820,7 @@
         <v>4</v>
       </c>
       <c r="C765">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8831,7 +8831,7 @@
         <v>5</v>
       </c>
       <c r="C766">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8853,7 +8853,7 @@
         <v>7</v>
       </c>
       <c r="C768">
-        <v>2409</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8875,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="C770">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8886,7 +8886,7 @@
         <v>4</v>
       </c>
       <c r="C771">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8897,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="C772">
-        <v>1605</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8919,7 +8919,7 @@
         <v>7</v>
       </c>
       <c r="C774">
-        <v>2080</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8941,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="C776">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8963,7 +8963,7 @@
         <v>5</v>
       </c>
       <c r="C778">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8974,7 +8974,7 @@
         <v>6</v>
       </c>
       <c r="C779">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8985,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="C780">
-        <v>2131</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -8996,7 +8996,7 @@
         <v>8</v>
       </c>
       <c r="C781">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9007,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="C782">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9029,7 +9029,7 @@
         <v>5</v>
       </c>
       <c r="C784">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9040,7 +9040,7 @@
         <v>6</v>
       </c>
       <c r="C785">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9051,7 +9051,7 @@
         <v>7</v>
       </c>
       <c r="C786">
-        <v>2061</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9062,7 +9062,7 @@
         <v>8</v>
       </c>
       <c r="C787">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9073,7 +9073,7 @@
         <v>3</v>
       </c>
       <c r="C788">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9084,7 +9084,7 @@
         <v>4</v>
       </c>
       <c r="C789">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9106,7 +9106,7 @@
         <v>6</v>
       </c>
       <c r="C791">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9117,7 +9117,7 @@
         <v>7</v>
       </c>
       <c r="C792">
-        <v>1809</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9128,7 +9128,7 @@
         <v>8</v>
       </c>
       <c r="C793">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9139,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="C794">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9150,7 +9150,7 @@
         <v>4</v>
       </c>
       <c r="C795">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9183,7 +9183,7 @@
         <v>7</v>
       </c>
       <c r="C798">
-        <v>1451</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9205,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="C800">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9216,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="C801">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9249,7 +9249,7 @@
         <v>7</v>
       </c>
       <c r="C804">
-        <v>1699</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9260,7 +9260,7 @@
         <v>8</v>
       </c>
       <c r="C805">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9271,7 +9271,7 @@
         <v>3</v>
       </c>
       <c r="C806">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9282,7 +9282,7 @@
         <v>4</v>
       </c>
       <c r="C807">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9293,7 +9293,7 @@
         <v>5</v>
       </c>
       <c r="C808">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9304,7 +9304,7 @@
         <v>6</v>
       </c>
       <c r="C809">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9315,7 +9315,7 @@
         <v>7</v>
       </c>
       <c r="C810">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9326,7 +9326,7 @@
         <v>8</v>
       </c>
       <c r="C811">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9337,7 +9337,7 @@
         <v>3</v>
       </c>
       <c r="C812">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9348,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="C813">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9381,7 +9381,7 @@
         <v>7</v>
       </c>
       <c r="C816">
-        <v>1327</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9403,7 +9403,7 @@
         <v>3</v>
       </c>
       <c r="C818">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9436,7 +9436,7 @@
         <v>6</v>
       </c>
       <c r="C821">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9447,7 +9447,7 @@
         <v>7</v>
       </c>
       <c r="C822">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="C824">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9491,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="C826">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9502,7 +9502,7 @@
         <v>6</v>
       </c>
       <c r="C827">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9513,7 +9513,7 @@
         <v>7</v>
       </c>
       <c r="C828">
-        <v>1146</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9535,7 +9535,7 @@
         <v>3</v>
       </c>
       <c r="C830">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="C833">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9579,7 +9579,7 @@
         <v>7</v>
       </c>
       <c r="C834">
-        <v>1376</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9601,7 +9601,7 @@
         <v>3</v>
       </c>
       <c r="C836">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>5</v>
       </c>
       <c r="C838">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9634,7 +9634,7 @@
         <v>6</v>
       </c>
       <c r="C839">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9645,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="C840">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9667,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="C842">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9678,7 +9678,7 @@
         <v>4</v>
       </c>
       <c r="C843">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9689,7 +9689,7 @@
         <v>5</v>
       </c>
       <c r="C844">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9711,7 +9711,7 @@
         <v>7</v>
       </c>
       <c r="C846">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9733,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="C848">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="C849">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9755,7 +9755,7 @@
         <v>5</v>
       </c>
       <c r="C850">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9777,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="C852">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9799,7 +9799,7 @@
         <v>3</v>
       </c>
       <c r="C854">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9810,7 +9810,7 @@
         <v>4</v>
       </c>
       <c r="C855">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9821,7 +9821,7 @@
         <v>5</v>
       </c>
       <c r="C856">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9843,7 +9843,7 @@
         <v>7</v>
       </c>
       <c r="C858">
-        <v>1262</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9865,7 +9865,7 @@
         <v>3</v>
       </c>
       <c r="C860">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9876,7 +9876,7 @@
         <v>4</v>
       </c>
       <c r="C861">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9887,7 +9887,7 @@
         <v>5</v>
       </c>
       <c r="C862">
-        <v>1326</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9898,7 +9898,7 @@
         <v>6</v>
       </c>
       <c r="C863">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9909,7 +9909,7 @@
         <v>7</v>
       </c>
       <c r="C864">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9920,7 +9920,7 @@
         <v>8</v>
       </c>
       <c r="C865">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>3</v>
       </c>
       <c r="C866">
-        <v>252</v>
+        <v>302</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9942,7 +9942,7 @@
         <v>4</v>
       </c>
       <c r="C867">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9953,7 +9953,7 @@
         <v>5</v>
       </c>
       <c r="C868">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9964,7 +9964,7 @@
         <v>6</v>
       </c>
       <c r="C869">
-        <v>216</v>
+        <v>251</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>7</v>
       </c>
       <c r="C870">
-        <v>1037</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9986,7 +9986,7 @@
         <v>8</v>
       </c>
       <c r="C871">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>3</v>
       </c>
       <c r="C872">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -10008,7 +10008,7 @@
         <v>4</v>
       </c>
       <c r="C873">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10019,7 +10019,7 @@
         <v>5</v>
       </c>
       <c r="C874">
-        <v>1412</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10030,7 +10030,7 @@
         <v>6</v>
       </c>
       <c r="C875">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10041,7 +10041,7 @@
         <v>7</v>
       </c>
       <c r="C876">
-        <v>1100</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10052,7 +10052,7 @@
         <v>8</v>
       </c>
       <c r="C877">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10063,7 +10063,7 @@
         <v>3</v>
       </c>
       <c r="C878">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10074,7 +10074,7 @@
         <v>4</v>
       </c>
       <c r="C879">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10085,7 +10085,7 @@
         <v>5</v>
       </c>
       <c r="C880">
-        <v>1312</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10096,7 +10096,7 @@
         <v>6</v>
       </c>
       <c r="C881">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10107,7 +10107,7 @@
         <v>7</v>
       </c>
       <c r="C882">
-        <v>1025</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10118,7 +10118,7 @@
         <v>8</v>
       </c>
       <c r="C883">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>3</v>
       </c>
       <c r="C884">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10140,7 +10140,7 @@
         <v>4</v>
       </c>
       <c r="C885">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10151,7 +10151,7 @@
         <v>5</v>
       </c>
       <c r="C886">
-        <v>1286</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10162,7 +10162,7 @@
         <v>6</v>
       </c>
       <c r="C887">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>7</v>
       </c>
       <c r="C888">
-        <v>1274</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10184,7 +10184,7 @@
         <v>8</v>
       </c>
       <c r="C889">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10195,7 +10195,7 @@
         <v>3</v>
       </c>
       <c r="C890">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10206,7 +10206,7 @@
         <v>4</v>
       </c>
       <c r="C891">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10217,7 +10217,7 @@
         <v>5</v>
       </c>
       <c r="C892">
-        <v>1260</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10228,7 +10228,7 @@
         <v>6</v>
       </c>
       <c r="C893">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10239,7 +10239,7 @@
         <v>7</v>
       </c>
       <c r="C894">
-        <v>1194</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10250,7 +10250,7 @@
         <v>8</v>
       </c>
       <c r="C895">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10261,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="C896">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10272,7 +10272,7 @@
         <v>4</v>
       </c>
       <c r="C897">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10283,7 +10283,7 @@
         <v>5</v>
       </c>
       <c r="C898">
-        <v>1347</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10294,7 +10294,7 @@
         <v>6</v>
       </c>
       <c r="C899">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10305,7 +10305,7 @@
         <v>7</v>
       </c>
       <c r="C900">
-        <v>981</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10316,7 +10316,7 @@
         <v>8</v>
       </c>
       <c r="C901">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10327,7 +10327,7 @@
         <v>3</v>
       </c>
       <c r="C902">
-        <v>205</v>
+        <v>249</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10338,7 +10338,7 @@
         <v>4</v>
       </c>
       <c r="C903">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10349,7 +10349,7 @@
         <v>5</v>
       </c>
       <c r="C904">
-        <v>1243</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10360,7 +10360,7 @@
         <v>6</v>
       </c>
       <c r="C905">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10371,7 +10371,7 @@
         <v>7</v>
       </c>
       <c r="C906">
-        <v>1053</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10382,7 +10382,7 @@
         <v>8</v>
       </c>
       <c r="C907">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10393,7 +10393,7 @@
         <v>3</v>
       </c>
       <c r="C908">
-        <v>327</v>
+        <v>389</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10404,7 +10404,7 @@
         <v>4</v>
       </c>
       <c r="C909">
-        <v>219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10415,7 +10415,7 @@
         <v>5</v>
       </c>
       <c r="C910">
-        <v>1708</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10426,7 +10426,7 @@
         <v>6</v>
       </c>
       <c r="C911">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10437,7 +10437,7 @@
         <v>7</v>
       </c>
       <c r="C912">
-        <v>1282</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10448,7 +10448,7 @@
         <v>8</v>
       </c>
       <c r="C913">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>3</v>
       </c>
       <c r="C914">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10470,7 +10470,7 @@
         <v>4</v>
       </c>
       <c r="C915">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10481,7 +10481,7 @@
         <v>5</v>
       </c>
       <c r="C916">
-        <v>1343</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10492,7 +10492,7 @@
         <v>6</v>
       </c>
       <c r="C917">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10503,7 +10503,7 @@
         <v>7</v>
       </c>
       <c r="C918">
-        <v>1210</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10525,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="C920">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10536,7 +10536,7 @@
         <v>4</v>
       </c>
       <c r="C921">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10547,7 +10547,7 @@
         <v>5</v>
       </c>
       <c r="C922">
-        <v>1164</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10558,7 +10558,7 @@
         <v>6</v>
       </c>
       <c r="C923">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10569,7 +10569,7 @@
         <v>7</v>
       </c>
       <c r="C924">
-        <v>1246</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10580,7 +10580,7 @@
         <v>8</v>
       </c>
       <c r="C925">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10591,7 +10591,7 @@
         <v>3</v>
       </c>
       <c r="C926">
-        <v>431</v>
+        <v>376</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10602,7 +10602,7 @@
         <v>4</v>
       </c>
       <c r="C927">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10613,7 +10613,7 @@
         <v>5</v>
       </c>
       <c r="C928">
-        <v>1085</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10624,7 +10624,7 @@
         <v>6</v>
       </c>
       <c r="C929">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10635,7 +10635,7 @@
         <v>7</v>
       </c>
       <c r="C930">
-        <v>1394</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>8</v>
       </c>
       <c r="C931">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10657,7 +10657,7 @@
         <v>3</v>
       </c>
       <c r="C932">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10668,7 +10668,7 @@
         <v>4</v>
       </c>
       <c r="C933">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10679,7 +10679,7 @@
         <v>5</v>
       </c>
       <c r="C934">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10690,7 +10690,7 @@
         <v>6</v>
       </c>
       <c r="C935">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10701,7 +10701,7 @@
         <v>7</v>
       </c>
       <c r="C936">
-        <v>2423</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -10712,7 +10712,7 @@
         <v>8</v>
       </c>
       <c r="C937">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10723,7 +10723,7 @@
         <v>3</v>
       </c>
       <c r="C938">
-        <v>273</v>
+        <v>233</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10734,7 +10734,7 @@
         <v>4</v>
       </c>
       <c r="C939">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>5</v>
       </c>
       <c r="C940">
-        <v>471</v>
+        <v>543</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10756,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="C941">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10767,7 +10767,7 @@
         <v>7</v>
       </c>
       <c r="C942">
-        <v>2364</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -10778,7 +10778,7 @@
         <v>8</v>
       </c>
       <c r="C943">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10789,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="C944">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10800,7 +10800,7 @@
         <v>4</v>
       </c>
       <c r="C945">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10811,7 +10811,7 @@
         <v>5</v>
       </c>
       <c r="C946">
-        <v>797</v>
+        <v>731</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10822,7 +10822,7 @@
         <v>6</v>
       </c>
       <c r="C947">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10833,7 +10833,7 @@
         <v>7</v>
       </c>
       <c r="C948">
-        <v>1254</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10844,7 +10844,7 @@
         <v>8</v>
       </c>
       <c r="C949">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10855,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="C950">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10866,7 +10866,7 @@
         <v>4</v>
       </c>
       <c r="C951">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -10877,7 +10877,7 @@
         <v>5</v>
       </c>
       <c r="C952">
-        <v>915</v>
+        <v>959</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10888,7 +10888,7 @@
         <v>6</v>
       </c>
       <c r="C953">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10899,7 +10899,7 @@
         <v>7</v>
       </c>
       <c r="C954">
-        <v>1073</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -10910,7 +10910,7 @@
         <v>8</v>
       </c>
       <c r="C955">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10921,7 +10921,7 @@
         <v>3</v>
       </c>
       <c r="C956">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10932,7 +10932,7 @@
         <v>4</v>
       </c>
       <c r="C957">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10943,7 +10943,7 @@
         <v>5</v>
       </c>
       <c r="C958">
-        <v>1041</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10954,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="C959">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -10965,7 +10965,7 @@
         <v>7</v>
       </c>
       <c r="C960">
-        <v>950</v>
+        <v>966</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -10976,7 +10976,7 @@
         <v>8</v>
       </c>
       <c r="C961">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -10987,7 +10987,7 @@
         <v>3</v>
       </c>
       <c r="C962">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -10998,7 +10998,7 @@
         <v>4</v>
       </c>
       <c r="C963">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -11009,7 +11009,7 @@
         <v>5</v>
       </c>
       <c r="C964">
-        <v>1176</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -11031,7 +11031,7 @@
         <v>7</v>
       </c>
       <c r="C966">
-        <v>1311</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -11042,7 +11042,7 @@
         <v>8</v>
       </c>
       <c r="C967">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11053,7 +11053,7 @@
         <v>3</v>
       </c>
       <c r="C968">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11064,7 +11064,7 @@
         <v>4</v>
       </c>
       <c r="C969">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11075,7 +11075,7 @@
         <v>5</v>
       </c>
       <c r="C970">
-        <v>1279</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11086,7 +11086,7 @@
         <v>6</v>
       </c>
       <c r="C971">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11097,7 +11097,7 @@
         <v>7</v>
       </c>
       <c r="C972">
-        <v>1314</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11108,7 +11108,7 @@
         <v>8</v>
       </c>
       <c r="C973">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11119,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="C974">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11130,7 +11130,7 @@
         <v>4</v>
       </c>
       <c r="C975">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11141,7 +11141,7 @@
         <v>5</v>
       </c>
       <c r="C976">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11163,7 +11163,7 @@
         <v>7</v>
       </c>
       <c r="C978">
-        <v>1129</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11174,7 +11174,7 @@
         <v>8</v>
       </c>
       <c r="C979">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11185,7 +11185,7 @@
         <v>3</v>
       </c>
       <c r="C980">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11196,7 +11196,7 @@
         <v>4</v>
       </c>
       <c r="C981">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11207,7 +11207,7 @@
         <v>5</v>
       </c>
       <c r="C982">
-        <v>1200</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11229,7 +11229,7 @@
         <v>7</v>
       </c>
       <c r="C984">
-        <v>2288</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -11240,7 +11240,7 @@
         <v>8</v>
       </c>
       <c r="C985">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -11251,7 +11251,7 @@
         <v>3</v>
       </c>
       <c r="C986">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11262,7 +11262,7 @@
         <v>4</v>
       </c>
       <c r="C987">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -11273,7 +11273,7 @@
         <v>5</v>
       </c>
       <c r="C988">
-        <v>1098</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11284,7 +11284,7 @@
         <v>6</v>
       </c>
       <c r="C989">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11295,7 +11295,7 @@
         <v>7</v>
       </c>
       <c r="C990">
-        <v>1543</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11306,7 +11306,7 @@
         <v>8</v>
       </c>
       <c r="C991">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11317,7 +11317,7 @@
         <v>3</v>
       </c>
       <c r="C992">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11328,7 +11328,7 @@
         <v>4</v>
       </c>
       <c r="C993">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11339,7 +11339,7 @@
         <v>5</v>
       </c>
       <c r="C994">
-        <v>1139</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11350,7 +11350,7 @@
         <v>6</v>
       </c>
       <c r="C995">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11361,7 +11361,7 @@
         <v>7</v>
       </c>
       <c r="C996">
-        <v>1091</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11372,7 +11372,7 @@
         <v>8</v>
       </c>
       <c r="C997">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11383,7 +11383,7 @@
         <v>3</v>
       </c>
       <c r="C998">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11394,7 +11394,7 @@
         <v>4</v>
       </c>
       <c r="C999">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -11405,7 +11405,7 @@
         <v>5</v>
       </c>
       <c r="C1000">
-        <v>1125</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11416,7 +11416,7 @@
         <v>6</v>
       </c>
       <c r="C1001">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11427,7 +11427,7 @@
         <v>7</v>
       </c>
       <c r="C1002">
-        <v>1134</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
@@ -11438,7 +11438,7 @@
         <v>8</v>
       </c>
       <c r="C1003">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11449,7 +11449,7 @@
         <v>3</v>
       </c>
       <c r="C1004">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11460,7 +11460,7 @@
         <v>4</v>
       </c>
       <c r="C1005">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11471,7 +11471,7 @@
         <v>5</v>
       </c>
       <c r="C1006">
-        <v>1002</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
@@ -11482,7 +11482,7 @@
         <v>6</v>
       </c>
       <c r="C1007">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11493,7 +11493,7 @@
         <v>7</v>
       </c>
       <c r="C1008">
-        <v>1186</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11504,7 +11504,7 @@
         <v>8</v>
       </c>
       <c r="C1009">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11515,7 +11515,7 @@
         <v>3</v>
       </c>
       <c r="C1010">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11526,7 +11526,7 @@
         <v>4</v>
       </c>
       <c r="C1011">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11537,7 +11537,7 @@
         <v>5</v>
       </c>
       <c r="C1012">
-        <v>926</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11548,7 +11548,7 @@
         <v>6</v>
       </c>
       <c r="C1013">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11559,7 +11559,7 @@
         <v>7</v>
       </c>
       <c r="C1014">
-        <v>1107</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11570,7 +11570,7 @@
         <v>8</v>
       </c>
       <c r="C1015">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11581,7 +11581,7 @@
         <v>3</v>
       </c>
       <c r="C1016">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11592,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="C1017">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11603,7 +11603,7 @@
         <v>5</v>
       </c>
       <c r="C1018">
-        <v>1087</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11614,7 +11614,7 @@
         <v>6</v>
       </c>
       <c r="C1019">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11625,7 +11625,7 @@
         <v>7</v>
       </c>
       <c r="C1020">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11636,7 +11636,7 @@
         <v>8</v>
       </c>
       <c r="C1021">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11647,7 +11647,7 @@
         <v>3</v>
       </c>
       <c r="C1022">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11658,7 +11658,7 @@
         <v>4</v>
       </c>
       <c r="C1023">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11669,7 +11669,7 @@
         <v>5</v>
       </c>
       <c r="C1024">
-        <v>1046</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
@@ -11680,7 +11680,7 @@
         <v>6</v>
       </c>
       <c r="C1025">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11691,7 +11691,7 @@
         <v>7</v>
       </c>
       <c r="C1026">
-        <v>1457</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11702,7 +11702,7 @@
         <v>8</v>
       </c>
       <c r="C1027">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -11713,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="C1028">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -11724,7 +11724,7 @@
         <v>4</v>
       </c>
       <c r="C1029">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11735,7 +11735,7 @@
         <v>5</v>
       </c>
       <c r="C1030">
-        <v>902</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11746,7 +11746,7 @@
         <v>6</v>
       </c>
       <c r="C1031">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11757,7 +11757,7 @@
         <v>7</v>
       </c>
       <c r="C1032">
-        <v>1905</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
@@ -11768,7 +11768,7 @@
         <v>8</v>
       </c>
       <c r="C1033">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
@@ -11779,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="C1034">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
@@ -11790,7 +11790,7 @@
         <v>4</v>
       </c>
       <c r="C1035">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
@@ -11801,7 +11801,7 @@
         <v>5</v>
       </c>
       <c r="C1036">
-        <v>873</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11812,7 +11812,7 @@
         <v>6</v>
       </c>
       <c r="C1037">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -11823,7 +11823,7 @@
         <v>7</v>
       </c>
       <c r="C1038">
-        <v>1083</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -11834,7 +11834,7 @@
         <v>8</v>
       </c>
       <c r="C1039">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -11845,7 +11845,7 @@
         <v>3</v>
       </c>
       <c r="C1040">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11856,7 +11856,7 @@
         <v>4</v>
       </c>
       <c r="C1041">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11867,7 +11867,7 @@
         <v>5</v>
       </c>
       <c r="C1042">
-        <v>936</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
@@ -11878,7 +11878,7 @@
         <v>6</v>
       </c>
       <c r="C1043">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -11889,7 +11889,7 @@
         <v>7</v>
       </c>
       <c r="C1044">
-        <v>1470</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11900,7 +11900,7 @@
         <v>8</v>
       </c>
       <c r="C1045">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
@@ -11911,7 +11911,7 @@
         <v>3</v>
       </c>
       <c r="C1046">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
@@ -11922,7 +11922,7 @@
         <v>4</v>
       </c>
       <c r="C1047">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -11933,7 +11933,7 @@
         <v>5</v>
       </c>
       <c r="C1048">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -11944,7 +11944,7 @@
         <v>6</v>
       </c>
       <c r="C1049">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -11955,7 +11955,7 @@
         <v>7</v>
       </c>
       <c r="C1050">
-        <v>1276</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11966,7 +11966,7 @@
         <v>8</v>
       </c>
       <c r="C1051">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -11977,7 +11977,7 @@
         <v>3</v>
       </c>
       <c r="C1052">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
@@ -11988,7 +11988,7 @@
         <v>4</v>
       </c>
       <c r="C1053">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -11999,7 +11999,7 @@
         <v>5</v>
       </c>
       <c r="C1054">
-        <v>952</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
@@ -12010,7 +12010,7 @@
         <v>6</v>
       </c>
       <c r="C1055">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12021,7 +12021,7 @@
         <v>7</v>
       </c>
       <c r="C1056">
-        <v>1117</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
@@ -12032,7 +12032,7 @@
         <v>8</v>
       </c>
       <c r="C1057">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12043,7 +12043,7 @@
         <v>3</v>
       </c>
       <c r="C1058">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12054,7 +12054,7 @@
         <v>4</v>
       </c>
       <c r="C1059">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12065,7 +12065,7 @@
         <v>5</v>
       </c>
       <c r="C1060">
-        <v>1075</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1061" spans="1:3">
@@ -12076,7 +12076,7 @@
         <v>6</v>
       </c>
       <c r="C1061">
-        <v>282</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12087,7 +12087,7 @@
         <v>7</v>
       </c>
       <c r="C1062">
-        <v>1179</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
@@ -12098,7 +12098,7 @@
         <v>8</v>
       </c>
       <c r="C1063">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12109,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="C1064">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12120,7 +12120,7 @@
         <v>4</v>
       </c>
       <c r="C1065">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1066" spans="1:3">
@@ -12131,7 +12131,7 @@
         <v>5</v>
       </c>
       <c r="C1066">
-        <v>927</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
@@ -12142,7 +12142,7 @@
         <v>6</v>
       </c>
       <c r="C1067">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12153,7 +12153,7 @@
         <v>7</v>
       </c>
       <c r="C1068">
-        <v>1265</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
@@ -12164,7 +12164,7 @@
         <v>8</v>
       </c>
       <c r="C1069">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -12175,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="C1070">
-        <v>325</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -12186,7 +12186,7 @@
         <v>4</v>
       </c>
       <c r="C1071">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
@@ -12197,7 +12197,7 @@
         <v>5</v>
       </c>
       <c r="C1072">
-        <v>1055</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
@@ -12208,7 +12208,7 @@
         <v>6</v>
       </c>
       <c r="C1073">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12219,7 +12219,7 @@
         <v>7</v>
       </c>
       <c r="C1074">
-        <v>1532</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12230,139 +12230,7 @@
         <v>8</v>
       </c>
       <c r="C1075">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:3">
-      <c r="A1076" s="2">
-        <v>44724</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1076">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:3">
-      <c r="A1077" s="2">
-        <v>44724</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1077">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:3">
-      <c r="A1078" s="2">
-        <v>44724</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1078">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:3">
-      <c r="A1079" s="2">
-        <v>44724</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1079">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:3">
-      <c r="A1080" s="2">
-        <v>44724</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1080">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:3">
-      <c r="A1081" s="2">
-        <v>44724</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1081">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:3">
-      <c r="A1082" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1082">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:3">
-      <c r="A1083" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1083">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:3">
-      <c r="A1084" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1084">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:3">
-      <c r="A1085" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1085">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:3">
-      <c r="A1086" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1086">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:3">
-      <c r="A1087" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1087">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
